--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H2">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J2">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N2">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q2">
-        <v>12.81791570065867</v>
+        <v>82.15870855940891</v>
       </c>
       <c r="R2">
-        <v>115.361241305928</v>
+        <v>739.42837703468</v>
       </c>
       <c r="S2">
-        <v>0.008225106076191351</v>
+        <v>0.02096941710200194</v>
       </c>
       <c r="T2">
-        <v>0.008225106076191351</v>
+        <v>0.02096941710200194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H3">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I3">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J3">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P3">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q3">
-        <v>22.49530635908044</v>
+        <v>53.5729974435049</v>
       </c>
       <c r="R3">
-        <v>202.4577572317239</v>
+        <v>482.1569769915441</v>
       </c>
       <c r="S3">
-        <v>0.01443497408945751</v>
+        <v>0.01367346868634154</v>
       </c>
       <c r="T3">
-        <v>0.01443497408945751</v>
+        <v>0.01367346868634154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H4">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I4">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J4">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N4">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q4">
-        <v>4.327713859301778</v>
+        <v>12.03091606921156</v>
       </c>
       <c r="R4">
-        <v>38.949424733716</v>
+        <v>108.278244622904</v>
       </c>
       <c r="S4">
-        <v>0.002777043194185731</v>
+        <v>0.003070658017853949</v>
       </c>
       <c r="T4">
-        <v>0.002777043194185731</v>
+        <v>0.003070658017853949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.312497333333333</v>
+        <v>17.41485066666667</v>
       </c>
       <c r="H5">
-        <v>21.937492</v>
+        <v>52.24455200000001</v>
       </c>
       <c r="I5">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="J5">
-        <v>0.05970572560549241</v>
+        <v>0.1047285618770465</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N5">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q5">
-        <v>53.40381640009689</v>
+        <v>262.566542121992</v>
       </c>
       <c r="R5">
-        <v>480.6343476008719</v>
+        <v>2363.098879097928</v>
       </c>
       <c r="S5">
-        <v>0.03426860224565782</v>
+        <v>0.0670150180708491</v>
       </c>
       <c r="T5">
-        <v>0.03426860224565782</v>
+        <v>0.0670150180708491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>89.046638</v>
       </c>
       <c r="I6">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J6">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N6">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q6">
-        <v>52.02929757472133</v>
+        <v>140.0329125156856</v>
       </c>
       <c r="R6">
-        <v>468.263678172492</v>
+        <v>1260.29621264117</v>
       </c>
       <c r="S6">
-        <v>0.03338658964653807</v>
+        <v>0.03574068533984127</v>
       </c>
       <c r="T6">
-        <v>0.03338658964653807</v>
+        <v>0.03574068533984129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>89.046638</v>
       </c>
       <c r="I7">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J7">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N7">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O7">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P7">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q7">
-        <v>91.31086644070955</v>
+        <v>91.31086644070956</v>
       </c>
       <c r="R7">
-        <v>821.7977979663858</v>
+        <v>821.797797966386</v>
       </c>
       <c r="S7">
-        <v>0.05859311138590057</v>
+        <v>0.0233053279185357</v>
       </c>
       <c r="T7">
-        <v>0.05859311138590057</v>
+        <v>0.0233053279185357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>89.046638</v>
       </c>
       <c r="I8">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J8">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N8">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q8">
-        <v>17.56665572330823</v>
+        <v>20.50572905713623</v>
       </c>
       <c r="R8">
-        <v>158.099901509774</v>
+        <v>184.551561514226</v>
       </c>
       <c r="S8">
-        <v>0.0112723168183045</v>
+        <v>0.005233689685723366</v>
       </c>
       <c r="T8">
-        <v>0.0112723168183045</v>
+        <v>0.005233689685723367</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>89.046638</v>
       </c>
       <c r="I9">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="J9">
-        <v>0.242351957758873</v>
+        <v>0.1785014126970782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N9">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q9">
-        <v>216.7718309275231</v>
+        <v>447.523558575998</v>
       </c>
       <c r="R9">
-        <v>1950.946478347708</v>
+        <v>4027.712027183982</v>
       </c>
       <c r="S9">
-        <v>0.1390999399081299</v>
+        <v>0.1142217097529778</v>
       </c>
       <c r="T9">
-        <v>0.1390999399081298</v>
+        <v>0.1142217097529779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H10">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I10">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J10">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N10">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q10">
-        <v>130.4425753314033</v>
+        <v>396.4339692046061</v>
       </c>
       <c r="R10">
-        <v>1173.98317798263</v>
+        <v>3567.905722841455</v>
       </c>
       <c r="S10">
-        <v>0.08370346973784833</v>
+        <v>0.1011820828177023</v>
       </c>
       <c r="T10">
-        <v>0.08370346973784833</v>
+        <v>0.1011820828177023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H11">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I11">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J11">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N11">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O11">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P11">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q11">
-        <v>228.9253387894072</v>
+        <v>258.5015805519821</v>
       </c>
       <c r="R11">
-        <v>2060.328049104664</v>
+        <v>2326.514224967839</v>
       </c>
       <c r="S11">
-        <v>0.1468987032715591</v>
+        <v>0.06597751545962549</v>
       </c>
       <c r="T11">
-        <v>0.1468987032715592</v>
+        <v>0.06597751545962549</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H12">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I12">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J12">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N12">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q12">
-        <v>44.04133669530389</v>
+        <v>58.05183521155544</v>
       </c>
       <c r="R12">
-        <v>396.372030257735</v>
+        <v>522.4665169039989</v>
       </c>
       <c r="S12">
-        <v>0.02826080889559281</v>
+        <v>0.01481660517104588</v>
       </c>
       <c r="T12">
-        <v>0.02826080889559281</v>
+        <v>0.01481660517104588</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>74.41623166666666</v>
+        <v>84.03051233333333</v>
       </c>
       <c r="H13">
-        <v>223.248695</v>
+        <v>252.091537</v>
       </c>
       <c r="I13">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="J13">
-        <v>0.6076002364105371</v>
+        <v>0.5053385113032314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N13">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q13">
-        <v>543.4683381008743</v>
+        <v>1266.941731423177</v>
       </c>
       <c r="R13">
-        <v>4891.215042907869</v>
+        <v>11402.47558280859</v>
       </c>
       <c r="S13">
-        <v>0.3487372545055368</v>
+        <v>0.3233623078548577</v>
       </c>
       <c r="T13">
-        <v>0.3487372545055368</v>
+        <v>0.3233623078548577</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H14">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I14">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J14">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N14">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O14">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P14">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q14">
-        <v>19.39507738669733</v>
+        <v>165.86631037167</v>
       </c>
       <c r="R14">
-        <v>174.555696480276</v>
+        <v>1492.79679334503</v>
       </c>
       <c r="S14">
-        <v>0.01244559354164954</v>
+        <v>0.04233415916997566</v>
       </c>
       <c r="T14">
-        <v>0.01244559354164954</v>
+        <v>0.04233415916997567</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H15">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I15">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J15">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N15">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O15">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P15">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q15">
-        <v>34.03815548961754</v>
+        <v>108.155977343286</v>
       </c>
       <c r="R15">
-        <v>306.3433994065579</v>
+        <v>973.403796089574</v>
       </c>
       <c r="S15">
-        <v>0.02184188491157051</v>
+        <v>0.02760471580862387</v>
       </c>
       <c r="T15">
-        <v>0.02184188491157052</v>
+        <v>0.02760471580862387</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H16">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I16">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J16">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N16">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O16">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P16">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q16">
-        <v>6.548361462880222</v>
+        <v>24.288644427126</v>
       </c>
       <c r="R16">
-        <v>58.935253165922</v>
+        <v>218.597799844134</v>
       </c>
       <c r="S16">
-        <v>0.004202006700252029</v>
+        <v>0.006199205473955717</v>
       </c>
       <c r="T16">
-        <v>0.004202006700252029</v>
+        <v>0.006199205473955717</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.06470466666667</v>
+        <v>35.158014</v>
       </c>
       <c r="H17">
-        <v>33.194114</v>
+        <v>105.474042</v>
       </c>
       <c r="I17">
-        <v>0.09034208022509747</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="J17">
-        <v>0.09034208022509749</v>
+        <v>0.2114315141226439</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N17">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O17">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P17">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q17">
-        <v>80.80651925114711</v>
+        <v>530.083107834282</v>
       </c>
       <c r="R17">
-        <v>727.2586732603239</v>
+        <v>4770.747970508537</v>
       </c>
       <c r="S17">
-        <v>0.05185259507162539</v>
+        <v>0.1352934336700886</v>
       </c>
       <c r="T17">
-        <v>0.0518525950716254</v>
+        <v>0.1352934336700886</v>
       </c>
     </row>
   </sheetData>
